--- a/pred_ohlcv/54_21/2020-01-16 XLM ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-16 XLM ohlcv.xlsx
@@ -678,7 +678,7 @@
         <v>-1162901.0456603</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>-1162901.0456603</v>
       </c>
       <c r="H12">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>-1170363.6570603</v>
       </c>
       <c r="H13">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>-1168242.6570603</v>
       </c>
       <c r="H14">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>-1192627.0419603</v>
       </c>
       <c r="H15">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>-1185601.9183603</v>
       </c>
       <c r="H16">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>-1211665.0613603</v>
       </c>
       <c r="H17">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>-1293938.9681603</v>
       </c>
       <c r="H18">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>-1181423.7300603</v>
       </c>
       <c r="H19">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>-1201237.9378603</v>
       </c>
       <c r="H20">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>-1229329.8236603</v>
       </c>
       <c r="H21">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>-1217147.45278462</v>
       </c>
       <c r="H22">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>-1220053.15908462</v>
       </c>
       <c r="H23">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>-1230887.98268462</v>
       </c>
       <c r="H24">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>-1266621.13788462</v>
       </c>
       <c r="H25">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>-1236745.60378462</v>
       </c>
       <c r="H26">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>-1092284.14688462</v>
       </c>
       <c r="H27">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>-1092284.14688462</v>
       </c>
       <c r="H28">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>-1092284.14688462</v>
       </c>
       <c r="H29">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>-892487.4750846202</v>
       </c>
       <c r="H30">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>-714530.1078846202</v>
       </c>
       <c r="H31">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>-714530.1078846202</v>
       </c>
       <c r="H32">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>-724530.1078846202</v>
       </c>
       <c r="H33">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>-771306.6130846202</v>
       </c>
       <c r="H34">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>-771270.5510578703</v>
       </c>
       <c r="H35">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>-770228.5510578703</v>
       </c>
       <c r="H36">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>-721001.1994578702</v>
       </c>
       <c r="H37">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>-359691.2992578702</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>-606679.7814578703</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>-622154.6097578703</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>-622154.6097578703</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>-625659.6921578703</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>-625659.6921578703</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>-609899.6218578703</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>-589281.8501578702</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>-589281.8501578702</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>-589281.8501578702</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>-569763.4947578702</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>-427154.5184578702</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>-396737.0414578702</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>-396737.0414578702</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>-444489.5873578702</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>-463121.7392578702</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>-463836.4450578702</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>-472360.9410578702</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>-497770.4932578701</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>-367153.5092578701</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>-363327.3871578702</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>-363327.3871578702</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>-363888.3871578702</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>-363094.3871578702</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>-426361.8058578701</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>-426361.8058578701</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>-426361.8058578701</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>-435157.2033578702</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>-439222.4388578702</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>-437017.8060578702</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>-425591.8060578702</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>-413884.8060578702</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>-405525.9259578701</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>-369429.2414578701</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>-369429.2414578701</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>-208779.7041578701</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>-66531.81411190011</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>-85271.26321190011</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>-14360.41262357011</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>4208.714876429887</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>-208532.5136235701</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>-334226.5762218101</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>-334226.5762218101</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>-300191.6028218101</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>-277459.6986218101</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>-327149.5379218101</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>-371527.4719218101</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>-480617.9958218101</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>-574065.1353218101</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>-554050.8655218101</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>-574035.0885218101</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>-560486.6144218101</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>-575900.0704218101</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>-569654.1714218102</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>-752184.6206218102</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>-706775.3708218102</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>-706775.3708218102</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>-706775.3708218102</v>
       </c>
       <c r="H105">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>-706775.3708218102</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>-706775.3708218102</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>-706775.3708218102</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>-440890.0387561102</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>-419795.8793561102</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>-419795.8793561102</v>
       </c>
       <c r="H111">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>-419795.8793561102</v>
       </c>
       <c r="H112">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>-424865.6816561102</v>
       </c>
       <c r="H113">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>-465435.9016561102</v>
       </c>
       <c r="H114">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>-458491.2676561102</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>-440127.4994561102</v>
       </c>
       <c r="H116">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>-440127.4994561102</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>-556823.8252561102</v>
       </c>
       <c r="H118">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>-571299.0252561101</v>
       </c>
       <c r="H119">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>-571995.9053561101</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>-532757.4667561101</v>
       </c>
       <c r="H121">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>-539241.7008561101</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>-508211.0230561101</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>-508211.0230561101</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>-509690.3882561101</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>-517170.4485561101</v>
       </c>
       <c r="H126">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>-689856.0444561101</v>
       </c>
       <c r="H127">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>-985734.2500248401</v>
       </c>
       <c r="H128">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -7594,7 +7594,7 @@
         <v>-1516875.66741505</v>
       </c>
       <c r="H277">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -7620,7 +7620,7 @@
         <v>-1516875.66741505</v>
       </c>
       <c r="H278">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -7646,7 +7646,7 @@
         <v>-1516875.66741505</v>
       </c>
       <c r="H279">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -7672,7 +7672,7 @@
         <v>-1528599.12561505</v>
       </c>
       <c r="H280">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -7698,7 +7698,7 @@
         <v>-1449833.0206712</v>
       </c>
       <c r="H281">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -7724,7 +7724,7 @@
         <v>-1449843.6517712</v>
       </c>
       <c r="H282">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -7750,7 +7750,7 @@
         <v>-1449843.6517712</v>
       </c>
       <c r="H283">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -7776,7 +7776,7 @@
         <v>-1465034.6021712</v>
       </c>
       <c r="H284">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -7802,7 +7802,7 @@
         <v>-1441244.1304712</v>
       </c>
       <c r="H285">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -7828,7 +7828,7 @@
         <v>-1441244.1304712</v>
       </c>
       <c r="H286">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -7854,7 +7854,7 @@
         <v>-1559286.351871199</v>
       </c>
       <c r="H287">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -7880,7 +7880,7 @@
         <v>-1559286.351871199</v>
       </c>
       <c r="H288">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -10402,7 +10402,7 @@
         <v>-770124.4916315204</v>
       </c>
       <c r="H385">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -10428,7 +10428,7 @@
         <v>-852397.8497116504</v>
       </c>
       <c r="H386">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -10454,7 +10454,7 @@
         <v>-698968.2477116503</v>
       </c>
       <c r="H387">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -10480,7 +10480,7 @@
         <v>-586807.5761116503</v>
       </c>
       <c r="H388">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -10506,7 +10506,7 @@
         <v>-586807.5761116503</v>
       </c>
       <c r="H389">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -10532,7 +10532,7 @@
         <v>-543401.6421116503</v>
       </c>
       <c r="H390">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -10558,7 +10558,7 @@
         <v>-492474.3466116503</v>
       </c>
       <c r="H391">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -10584,7 +10584,7 @@
         <v>-492474.3466116503</v>
       </c>
       <c r="H392">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -10610,7 +10610,7 @@
         <v>-1477129.96021165</v>
       </c>
       <c r="H393">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -10636,7 +10636,7 @@
         <v>-1303891.662711651</v>
       </c>
       <c r="H394">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -10662,7 +10662,7 @@
         <v>-1250122.523211651</v>
       </c>
       <c r="H395">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -10688,7 +10688,7 @@
         <v>-1250122.523211651</v>
       </c>
       <c r="H396">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -10714,7 +10714,7 @@
         <v>-1149755.700311651</v>
       </c>
       <c r="H397">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -10740,7 +10740,7 @@
         <v>-1045970.527811651</v>
       </c>
       <c r="H398">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -10766,7 +10766,7 @@
         <v>-922575.1319116505</v>
       </c>
       <c r="H399">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -10792,7 +10792,7 @@
         <v>-539855.6072447505</v>
       </c>
       <c r="H400">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -10818,7 +10818,7 @@
         <v>-600935.4740447504</v>
       </c>
       <c r="H401">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -10844,7 +10844,7 @@
         <v>-562588.9460447504</v>
       </c>
       <c r="H402">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -10870,7 +10870,7 @@
         <v>-567093.3778447504</v>
       </c>
       <c r="H403">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -10896,7 +10896,7 @@
         <v>-259081.8922447504</v>
       </c>
       <c r="H404">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -10922,7 +10922,7 @@
         <v>-259081.8922447504</v>
       </c>
       <c r="H405">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -10948,7 +10948,7 @@
         <v>-259081.8922447504</v>
       </c>
       <c r="H406">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -10974,7 +10974,7 @@
         <v>-292619.4665447504</v>
       </c>
       <c r="H407">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -11000,7 +11000,7 @@
         <v>-256660.8525447504</v>
       </c>
       <c r="H408">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -11026,7 +11026,7 @@
         <v>-256660.8525447504</v>
       </c>
       <c r="H409">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -11052,7 +11052,7 @@
         <v>-304578.8910447504</v>
       </c>
       <c r="H410">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -11078,7 +11078,7 @@
         <v>-263818.2281447504</v>
       </c>
       <c r="H411">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -11104,7 +11104,7 @@
         <v>-263818.2281447504</v>
       </c>
       <c r="H412">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -11130,7 +11130,7 @@
         <v>-280418.7275447504</v>
       </c>
       <c r="H413">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -11156,7 +11156,7 @@
         <v>-469134.3886447505</v>
       </c>
       <c r="H414">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -11182,7 +11182,7 @@
         <v>-720907.4482447505</v>
       </c>
       <c r="H415">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -11208,7 +11208,7 @@
         <v>-908276.5840447505</v>
       </c>
       <c r="H416">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -11234,7 +11234,7 @@
         <v>-1355655.971498461</v>
       </c>
       <c r="H417">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -11260,7 +11260,7 @@
         <v>-1386917.97721818</v>
       </c>
       <c r="H418">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -11286,7 +11286,7 @@
         <v>-1470333.00421818</v>
       </c>
       <c r="H419">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -11312,7 +11312,7 @@
         <v>-1658250.42701818</v>
       </c>
       <c r="H420">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -11338,7 +11338,7 @@
         <v>-1674307.80531818</v>
       </c>
       <c r="H421">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -11364,7 +11364,7 @@
         <v>-2092728.652718181</v>
       </c>
       <c r="H422">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -11390,7 +11390,7 @@
         <v>-2620010.57231818</v>
       </c>
       <c r="H423">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -11416,7 +11416,7 @@
         <v>-2620010.57231818</v>
       </c>
       <c r="H424">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -11442,7 +11442,7 @@
         <v>-2585488.96581818</v>
       </c>
       <c r="H425">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -11468,7 +11468,7 @@
         <v>-2632628.42901818</v>
       </c>
       <c r="H426">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -11494,7 +11494,7 @@
         <v>-2632628.42901818</v>
       </c>
       <c r="H427">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -11520,7 +11520,7 @@
         <v>-2545475.14804545</v>
       </c>
       <c r="H428">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -11546,7 +11546,7 @@
         <v>-2548359.62034545</v>
       </c>
       <c r="H429">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -11598,7 +11598,7 @@
         <v>-2526622.22594545</v>
       </c>
       <c r="H431">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -11624,7 +11624,7 @@
         <v>-2526622.22594545</v>
       </c>
       <c r="H432">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -11650,7 +11650,7 @@
         <v>-2491600.122801871</v>
       </c>
       <c r="H433">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -16642,7 +16642,7 @@
         <v>-3651594.985909841</v>
       </c>
       <c r="H625">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="626" spans="1:8">
@@ -16668,7 +16668,7 @@
         <v>-3675994.107909841</v>
       </c>
       <c r="H626">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="627" spans="1:8">
@@ -16694,7 +16694,7 @@
         <v>-3630041.445909841</v>
       </c>
       <c r="H627">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="628" spans="1:8">
@@ -16772,7 +16772,7 @@
         <v>-3563806.214261751</v>
       </c>
       <c r="H630">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="631" spans="1:8">
@@ -16798,7 +16798,7 @@
         <v>-3596579.357961751</v>
       </c>
       <c r="H631">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="632" spans="1:8">
@@ -16824,7 +16824,7 @@
         <v>-3594653.69636175</v>
       </c>
       <c r="H632">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="633" spans="1:8">
@@ -16850,7 +16850,7 @@
         <v>-3594653.69636175</v>
       </c>
       <c r="H633">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="634" spans="1:8">
@@ -16876,7 +16876,7 @@
         <v>-3577383.10486175</v>
       </c>
       <c r="H634">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="635" spans="1:8">
@@ -16902,7 +16902,7 @@
         <v>-3585190.10756175</v>
       </c>
       <c r="H635">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="636" spans="1:8">
@@ -16928,7 +16928,7 @@
         <v>-3584590.10756175</v>
       </c>
       <c r="H636">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="637" spans="1:8">
@@ -16954,7 +16954,7 @@
         <v>-3574428.58666175</v>
       </c>
       <c r="H637">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="638" spans="1:8">
@@ -17084,7 +17084,7 @@
         <v>-3378806.02916175</v>
       </c>
       <c r="H642">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="643" spans="1:8">
@@ -17162,7 +17162,7 @@
         <v>-3375560.91376175</v>
       </c>
       <c r="H645">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="646" spans="1:8">
@@ -17188,7 +17188,7 @@
         <v>-3375560.91376175</v>
       </c>
       <c r="H646">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="647" spans="1:8">
@@ -17214,7 +17214,7 @@
         <v>-3350813.87806175</v>
       </c>
       <c r="H647">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="648" spans="1:8">
@@ -17344,7 +17344,7 @@
         <v>-3361032.82366175</v>
       </c>
       <c r="H652">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="653" spans="1:8">
@@ -17370,7 +17370,7 @@
         <v>-3380103.19496175</v>
       </c>
       <c r="H653">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="654" spans="1:8">
@@ -17708,7 +17708,7 @@
         <v>-3277944.93996175</v>
       </c>
       <c r="H666">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="667" spans="1:8">
@@ -17734,7 +17734,7 @@
         <v>-3281722.57806175</v>
       </c>
       <c r="H667">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="668" spans="1:8">
@@ -17760,7 +17760,7 @@
         <v>-3241239.51126175</v>
       </c>
       <c r="H668">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="669" spans="1:8">
@@ -17786,7 +17786,7 @@
         <v>-3242434.21246175</v>
       </c>
       <c r="H669">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="670" spans="1:8">
@@ -20334,7 +20334,7 @@
         <v>-2676029.64066283</v>
       </c>
       <c r="H767">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="768" spans="1:8">
@@ -20360,7 +20360,7 @@
         <v>-2704362.49276283</v>
       </c>
       <c r="H768">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="769" spans="1:8">
@@ -24520,7 +24520,7 @@
         <v>-1494433.650385969</v>
       </c>
       <c r="H928">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="929" spans="1:8">
@@ -24546,7 +24546,7 @@
         <v>-1494433.650385969</v>
       </c>
       <c r="H929">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="930" spans="1:8">
@@ -24572,7 +24572,7 @@
         <v>-1339368.378885969</v>
       </c>
       <c r="H930">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="931" spans="1:8">
@@ -24598,7 +24598,7 @@
         <v>-1147718.511085969</v>
       </c>
       <c r="H931">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="932" spans="1:8">
@@ -24624,7 +24624,7 @@
         <v>-1108710.765885969</v>
       </c>
       <c r="H932">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="933" spans="1:8">
@@ -24650,7 +24650,7 @@
         <v>-1090200.029785969</v>
       </c>
       <c r="H933">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="934" spans="1:8">
@@ -24676,7 +24676,7 @@
         <v>-1089389.394247709</v>
       </c>
       <c r="H934">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="935" spans="1:8">
@@ -24702,7 +24702,7 @@
         <v>-1127547.608247709</v>
       </c>
       <c r="H935">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="936" spans="1:8">
@@ -24728,7 +24728,7 @@
         <v>-1127415.224001519</v>
       </c>
       <c r="H936">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="937" spans="1:8">
@@ -24754,7 +24754,7 @@
         <v>-1127415.224001519</v>
       </c>
       <c r="H937">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="938" spans="1:8">
@@ -24780,7 +24780,7 @@
         <v>-1185248.025301519</v>
       </c>
       <c r="H938">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="939" spans="1:8">
@@ -24806,7 +24806,7 @@
         <v>-1230884.533701519</v>
       </c>
       <c r="H939">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="940" spans="1:8">
@@ -24832,7 +24832,7 @@
         <v>-1230884.533701519</v>
       </c>
       <c r="H940">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="941" spans="1:8">
@@ -24858,7 +24858,7 @@
         <v>-1381771.362501519</v>
       </c>
       <c r="H941">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="942" spans="1:8">
@@ -24884,7 +24884,7 @@
         <v>-1341647.635101519</v>
       </c>
       <c r="H942">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="943" spans="1:8">
@@ -24910,7 +24910,7 @@
         <v>-1341637.635101519</v>
       </c>
       <c r="H943">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="944" spans="1:8">
@@ -24936,7 +24936,7 @@
         <v>-1341527.638344589</v>
       </c>
       <c r="H944">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="945" spans="1:8">
@@ -24962,7 +24962,7 @@
         <v>-1352182.113044589</v>
       </c>
       <c r="H945">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="946" spans="1:8">
@@ -24988,7 +24988,7 @@
         <v>-1385558.706144589</v>
       </c>
       <c r="H946">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="947" spans="1:8">
@@ -25014,7 +25014,7 @@
         <v>-1380400.447644589</v>
       </c>
       <c r="H947">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="948" spans="1:8">
@@ -25040,7 +25040,7 @@
         <v>-1375628.493344588</v>
       </c>
       <c r="H948">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="949" spans="1:8">
@@ -25066,7 +25066,7 @@
         <v>-1386282.968044588</v>
       </c>
       <c r="H949">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="950" spans="1:8">
@@ -25092,7 +25092,7 @@
         <v>-1385776.968144588</v>
       </c>
       <c r="H950">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="951" spans="1:8">
@@ -25118,7 +25118,7 @@
         <v>-1386239.968144588</v>
       </c>
       <c r="H951">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="952" spans="1:8">
@@ -25144,7 +25144,7 @@
         <v>-1366897.089544588</v>
       </c>
       <c r="H952">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="953" spans="1:8">
@@ -25170,7 +25170,7 @@
         <v>-1366897.089544588</v>
       </c>
       <c r="H953">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="954" spans="1:8">
@@ -25196,7 +25196,7 @@
         <v>-1366897.089544588</v>
       </c>
       <c r="H954">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="955" spans="1:8">
@@ -25222,7 +25222,7 @@
         <v>-1416820.699544589</v>
       </c>
       <c r="H955">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="956" spans="1:8">
@@ -25248,7 +25248,7 @@
         <v>-1323978.687614439</v>
       </c>
       <c r="H956">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="957" spans="1:8">
@@ -25274,7 +25274,7 @@
         <v>-1265272.987254489</v>
       </c>
       <c r="H957">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="958" spans="1:8">
@@ -25300,7 +25300,7 @@
         <v>-1232655.458744589</v>
       </c>
       <c r="H958">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="959" spans="1:8">
@@ -25326,7 +25326,7 @@
         <v>-1232655.458744589</v>
       </c>
       <c r="H959">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="960" spans="1:8">
@@ -25352,7 +25352,7 @@
         <v>-1157162.067644589</v>
       </c>
       <c r="H960">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="961" spans="1:8">
@@ -25378,7 +25378,7 @@
         <v>-1157162.067644589</v>
       </c>
       <c r="H961">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="962" spans="1:8">
@@ -25404,7 +25404,7 @@
         <v>-1157162.067644589</v>
       </c>
       <c r="H962">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="963" spans="1:8">
@@ -25430,7 +25430,7 @@
         <v>-1155548.904231139</v>
       </c>
       <c r="H963">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="964" spans="1:8">
@@ -25456,7 +25456,7 @@
         <v>-1155548.904231139</v>
       </c>
       <c r="H964">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="965" spans="1:8">
@@ -25482,7 +25482,7 @@
         <v>-1208516.775431139</v>
       </c>
       <c r="H965">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="966" spans="1:8">
@@ -25508,7 +25508,7 @@
         <v>-1208506.775431139</v>
       </c>
       <c r="H966">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="967" spans="1:8">
@@ -25534,7 +25534,7 @@
         <v>-1223341.967431139</v>
       </c>
       <c r="H967">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="968" spans="1:8">
@@ -25560,7 +25560,7 @@
         <v>-1223532.943831139</v>
       </c>
       <c r="H968">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="969" spans="1:8">
@@ -25586,7 +25586,7 @@
         <v>-1223477.949479039</v>
       </c>
       <c r="H969">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="970" spans="1:8">
@@ -25612,7 +25612,7 @@
         <v>-1311539.101582619</v>
       </c>
       <c r="H970">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="971" spans="1:8">
@@ -25638,7 +25638,7 @@
         <v>-1281312.325776169</v>
       </c>
       <c r="H971">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="972" spans="1:8">
@@ -25664,7 +25664,7 @@
         <v>-1281312.325776169</v>
       </c>
       <c r="H972">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="973" spans="1:8">
@@ -25690,7 +25690,7 @@
         <v>-1281312.325776169</v>
       </c>
       <c r="H973">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="974" spans="1:8">
@@ -25716,7 +25716,7 @@
         <v>-1493653.791076169</v>
       </c>
       <c r="H974">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="975" spans="1:8">
@@ -25742,7 +25742,7 @@
         <v>-1437668.537076169</v>
       </c>
       <c r="H975">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="976" spans="1:8">
@@ -25768,7 +25768,7 @@
         <v>-1274572.200551749</v>
       </c>
       <c r="H976">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="977" spans="1:8">
@@ -25794,7 +25794,7 @@
         <v>-1193489.546351749</v>
       </c>
       <c r="H977">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="978" spans="1:8">
@@ -25820,7 +25820,7 @@
         <v>-1098756.107516769</v>
       </c>
       <c r="H978">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="979" spans="1:8">
@@ -25846,7 +25846,7 @@
         <v>-1082888.422734499</v>
       </c>
       <c r="H979">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="980" spans="1:8">
@@ -25872,7 +25872,7 @@
         <v>-931762.200434499</v>
       </c>
       <c r="H980">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="981" spans="1:8">
@@ -25898,7 +25898,7 @@
         <v>-915065.345834499</v>
       </c>
       <c r="H981">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="982" spans="1:8">
@@ -25924,7 +25924,7 @@
         <v>-854521.056234499</v>
       </c>
       <c r="H982">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="983" spans="1:8">
@@ -25950,7 +25950,7 @@
         <v>-1006259.096534499</v>
       </c>
       <c r="H983">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="984" spans="1:8">
@@ -25976,7 +25976,7 @@
         <v>-1006223.096534499</v>
       </c>
       <c r="H984">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="985" spans="1:8">
@@ -26002,7 +26002,7 @@
         <v>-1065891.187534499</v>
       </c>
       <c r="H985">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="986" spans="1:8">
@@ -26028,7 +26028,7 @@
         <v>-1074671.187534499</v>
       </c>
       <c r="H986">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="987" spans="1:8">
@@ -26054,7 +26054,7 @@
         <v>-1074821.187534499</v>
       </c>
       <c r="H987">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="988" spans="1:8">
@@ -26080,7 +26080,7 @@
         <v>-1064166.143124859</v>
       </c>
       <c r="H988">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="989" spans="1:8">
@@ -26106,7 +26106,7 @@
         <v>-1077236.098724859</v>
       </c>
       <c r="H989">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="990" spans="1:8">
@@ -26132,7 +26132,7 @@
         <v>-1061788.207724859</v>
       </c>
       <c r="H990">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="991" spans="1:8">
@@ -26158,7 +26158,7 @@
         <v>-1027981.504324859</v>
       </c>
       <c r="H991">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="992" spans="1:8">
@@ -26184,7 +26184,7 @@
         <v>-1027981.504324859</v>
       </c>
       <c r="H992">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="993" spans="1:8">
@@ -26210,7 +26210,7 @@
         <v>-1035213.092024859</v>
       </c>
       <c r="H993">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="994" spans="1:8">
@@ -26236,7 +26236,7 @@
         <v>-1060734.483784169</v>
       </c>
       <c r="H994">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="995" spans="1:8">
@@ -26262,7 +26262,7 @@
         <v>-1082298.983184169</v>
       </c>
       <c r="H995">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="996" spans="1:8">
@@ -26288,7 +26288,7 @@
         <v>-1082708.629884169</v>
       </c>
       <c r="H996">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="997" spans="1:8">
@@ -26314,7 +26314,7 @@
         <v>-1075352.629884169</v>
       </c>
       <c r="H997">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="998" spans="1:8">
@@ -26340,7 +26340,7 @@
         <v>-1076052.629884169</v>
       </c>
       <c r="H998">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="999" spans="1:8">
@@ -26366,7 +26366,7 @@
         <v>-1184132.385284169</v>
       </c>
       <c r="H999">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1000" spans="1:8">
@@ -26392,7 +26392,7 @@
         <v>-2312809.327884169</v>
       </c>
       <c r="H1000">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1001" spans="1:8">
@@ -26418,7 +26418,7 @@
         <v>-2319125.900584169</v>
       </c>
       <c r="H1001">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1002" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-16 XLM ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-16 XLM ohlcv.xlsx
@@ -1640,7 +1640,7 @@
         <v>-359691.2992578702</v>
       </c>
       <c r="H48">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>-606679.7814578703</v>
       </c>
       <c r="H49">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>-622154.6097578703</v>
       </c>
       <c r="H50">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>-622154.6097578703</v>
       </c>
       <c r="H51">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>-625659.6921578703</v>
       </c>
       <c r="H52">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>-625659.6921578703</v>
       </c>
       <c r="H53">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>-609899.6218578703</v>
       </c>
       <c r="H54">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>-589281.8501578702</v>
       </c>
       <c r="H55">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>-589281.8501578702</v>
       </c>
       <c r="H56">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>-589281.8501578702</v>
       </c>
       <c r="H57">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>-569763.4947578702</v>
       </c>
       <c r="H58">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>-427154.5184578702</v>
       </c>
       <c r="H59">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>-396737.0414578702</v>
       </c>
       <c r="H60">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>-396737.0414578702</v>
       </c>
       <c r="H61">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>-444489.5873578702</v>
       </c>
       <c r="H62">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>-463121.7392578702</v>
       </c>
       <c r="H63">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>-463836.4450578702</v>
       </c>
       <c r="H64">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>-472360.9410578702</v>
       </c>
       <c r="H65">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>-497770.4932578701</v>
       </c>
       <c r="H66">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>-367153.5092578701</v>
       </c>
       <c r="H67">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>-363327.3871578702</v>
       </c>
       <c r="H68">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>-363327.3871578702</v>
       </c>
       <c r="H69">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>-363888.3871578702</v>
       </c>
       <c r="H70">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>-363094.3871578702</v>
       </c>
       <c r="H71">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>-426361.8058578701</v>
       </c>
       <c r="H72">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>-426361.8058578701</v>
       </c>
       <c r="H73">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>-426361.8058578701</v>
       </c>
       <c r="H74">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>-435157.2033578702</v>
       </c>
       <c r="H75">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>-439222.4388578702</v>
       </c>
       <c r="H76">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>-437017.8060578702</v>
       </c>
       <c r="H77">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>-425591.8060578702</v>
       </c>
       <c r="H78">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>-413884.8060578702</v>
       </c>
       <c r="H79">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>-405525.9259578701</v>
       </c>
       <c r="H80">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>-369429.2414578701</v>
       </c>
       <c r="H81">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>-369429.2414578701</v>
       </c>
       <c r="H82">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>-208779.7041578701</v>
       </c>
       <c r="H83">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>-66531.81411190011</v>
       </c>
       <c r="H84">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>-85271.26321190011</v>
       </c>
       <c r="H85">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>-14360.41262357011</v>
       </c>
       <c r="H86">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>4208.714876429887</v>
       </c>
       <c r="H87">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>-208532.5136235701</v>
       </c>
       <c r="H88">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>-334226.5762218101</v>
       </c>
       <c r="H89">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>-334226.5762218101</v>
       </c>
       <c r="H90">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>-300191.6028218101</v>
       </c>
       <c r="H91">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>-277459.6986218101</v>
       </c>
       <c r="H92">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>-327149.5379218101</v>
       </c>
       <c r="H93">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>-371527.4719218101</v>
       </c>
       <c r="H94">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>-480617.9958218101</v>
       </c>
       <c r="H95">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>-574065.1353218101</v>
       </c>
       <c r="H96">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>-554050.8655218101</v>
       </c>
       <c r="H97">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>-574035.0885218101</v>
       </c>
       <c r="H98">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>-560486.6144218101</v>
       </c>
       <c r="H99">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>-575900.0704218101</v>
       </c>
       <c r="H100">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>-569654.1714218102</v>
       </c>
       <c r="H101">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>-752184.6206218102</v>
       </c>
       <c r="H102">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>-706775.3708218102</v>
       </c>
       <c r="H103">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>-706775.3708218102</v>
       </c>
       <c r="H104">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>-706775.3708218102</v>
       </c>
       <c r="H105">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>-706775.3708218102</v>
       </c>
       <c r="H106">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>-706775.3708218102</v>
       </c>
       <c r="H107">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>-706775.3708218102</v>
       </c>
       <c r="H108">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>-440890.0387561102</v>
       </c>
       <c r="H109">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>-419795.8793561102</v>
       </c>
       <c r="H110">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>-419795.8793561102</v>
       </c>
       <c r="H111">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>-419795.8793561102</v>
       </c>
       <c r="H112">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>-424865.6816561102</v>
       </c>
       <c r="H113">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>-465435.9016561102</v>
       </c>
       <c r="H114">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>-458491.2676561102</v>
       </c>
       <c r="H115">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>-440127.4994561102</v>
       </c>
       <c r="H116">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>-440127.4994561102</v>
       </c>
       <c r="H117">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>-556823.8252561102</v>
       </c>
       <c r="H118">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>-571299.0252561101</v>
       </c>
       <c r="H119">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>-571995.9053561101</v>
       </c>
       <c r="H120">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>-532757.4667561101</v>
       </c>
       <c r="H121">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>-539241.7008561101</v>
       </c>
       <c r="H122">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>-508211.0230561101</v>
       </c>
       <c r="H123">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>-508211.0230561101</v>
       </c>
       <c r="H124">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>-509690.3882561101</v>
       </c>
       <c r="H125">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>-517170.4485561101</v>
       </c>
       <c r="H126">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>-689856.0444561101</v>
       </c>
       <c r="H127">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>-985734.2500248401</v>
       </c>
       <c r="H128">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -7594,7 +7594,7 @@
         <v>-1516875.66741505</v>
       </c>
       <c r="H277">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -7620,7 +7620,7 @@
         <v>-1516875.66741505</v>
       </c>
       <c r="H278">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -7646,7 +7646,7 @@
         <v>-1516875.66741505</v>
       </c>
       <c r="H279">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -7672,7 +7672,7 @@
         <v>-1528599.12561505</v>
       </c>
       <c r="H280">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -7698,7 +7698,7 @@
         <v>-1449833.0206712</v>
       </c>
       <c r="H281">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -7724,7 +7724,7 @@
         <v>-1449843.6517712</v>
       </c>
       <c r="H282">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -7750,7 +7750,7 @@
         <v>-1449843.6517712</v>
       </c>
       <c r="H283">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -7776,7 +7776,7 @@
         <v>-1465034.6021712</v>
       </c>
       <c r="H284">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -7802,7 +7802,7 @@
         <v>-1441244.1304712</v>
       </c>
       <c r="H285">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -7828,7 +7828,7 @@
         <v>-1441244.1304712</v>
       </c>
       <c r="H286">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -7854,7 +7854,7 @@
         <v>-1559286.351871199</v>
       </c>
       <c r="H287">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -7880,7 +7880,7 @@
         <v>-1559286.351871199</v>
       </c>
       <c r="H288">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -10402,7 +10402,7 @@
         <v>-770124.4916315204</v>
       </c>
       <c r="H385">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -10428,7 +10428,7 @@
         <v>-852397.8497116504</v>
       </c>
       <c r="H386">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -10454,7 +10454,7 @@
         <v>-698968.2477116503</v>
       </c>
       <c r="H387">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -10480,7 +10480,7 @@
         <v>-586807.5761116503</v>
       </c>
       <c r="H388">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -10506,7 +10506,7 @@
         <v>-586807.5761116503</v>
       </c>
       <c r="H389">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -10532,7 +10532,7 @@
         <v>-543401.6421116503</v>
       </c>
       <c r="H390">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -10558,7 +10558,7 @@
         <v>-492474.3466116503</v>
       </c>
       <c r="H391">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -10584,7 +10584,7 @@
         <v>-492474.3466116503</v>
       </c>
       <c r="H392">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -10610,7 +10610,7 @@
         <v>-1477129.96021165</v>
       </c>
       <c r="H393">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -10636,7 +10636,7 @@
         <v>-1303891.662711651</v>
       </c>
       <c r="H394">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -10662,7 +10662,7 @@
         <v>-1250122.523211651</v>
       </c>
       <c r="H395">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -10688,7 +10688,7 @@
         <v>-1250122.523211651</v>
       </c>
       <c r="H396">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -10714,7 +10714,7 @@
         <v>-1149755.700311651</v>
       </c>
       <c r="H397">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -10740,7 +10740,7 @@
         <v>-1045970.527811651</v>
       </c>
       <c r="H398">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -10766,7 +10766,7 @@
         <v>-922575.1319116505</v>
       </c>
       <c r="H399">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -10792,7 +10792,7 @@
         <v>-539855.6072447505</v>
       </c>
       <c r="H400">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -10818,7 +10818,7 @@
         <v>-600935.4740447504</v>
       </c>
       <c r="H401">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -10844,7 +10844,7 @@
         <v>-562588.9460447504</v>
       </c>
       <c r="H402">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -10870,7 +10870,7 @@
         <v>-567093.3778447504</v>
       </c>
       <c r="H403">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -10896,7 +10896,7 @@
         <v>-259081.8922447504</v>
       </c>
       <c r="H404">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -10922,7 +10922,7 @@
         <v>-259081.8922447504</v>
       </c>
       <c r="H405">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -11026,7 +11026,7 @@
         <v>-256660.8525447504</v>
       </c>
       <c r="H409">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -11052,7 +11052,7 @@
         <v>-304578.8910447504</v>
       </c>
       <c r="H410">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -11104,7 +11104,7 @@
         <v>-263818.2281447504</v>
       </c>
       <c r="H412">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -11130,7 +11130,7 @@
         <v>-280418.7275447504</v>
       </c>
       <c r="H413">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -11234,7 +11234,7 @@
         <v>-1355655.971498461</v>
       </c>
       <c r="H417">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -11260,7 +11260,7 @@
         <v>-1386917.97721818</v>
       </c>
       <c r="H418">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -11286,7 +11286,7 @@
         <v>-1470333.00421818</v>
       </c>
       <c r="H419">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -11312,7 +11312,7 @@
         <v>-1658250.42701818</v>
       </c>
       <c r="H420">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -11338,7 +11338,7 @@
         <v>-1674307.80531818</v>
       </c>
       <c r="H421">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -11364,7 +11364,7 @@
         <v>-2092728.652718181</v>
       </c>
       <c r="H422">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -11390,7 +11390,7 @@
         <v>-2620010.57231818</v>
       </c>
       <c r="H423">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -11416,7 +11416,7 @@
         <v>-2620010.57231818</v>
       </c>
       <c r="H424">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -11442,7 +11442,7 @@
         <v>-2585488.96581818</v>
       </c>
       <c r="H425">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -11468,7 +11468,7 @@
         <v>-2632628.42901818</v>
       </c>
       <c r="H426">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -11494,7 +11494,7 @@
         <v>-2632628.42901818</v>
       </c>
       <c r="H427">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -11520,7 +11520,7 @@
         <v>-2545475.14804545</v>
       </c>
       <c r="H428">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -11546,7 +11546,7 @@
         <v>-2548359.62034545</v>
       </c>
       <c r="H429">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -11598,7 +11598,7 @@
         <v>-2526622.22594545</v>
       </c>
       <c r="H431">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -11624,7 +11624,7 @@
         <v>-2526622.22594545</v>
       </c>
       <c r="H432">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -11650,7 +11650,7 @@
         <v>-2491600.122801871</v>
       </c>
       <c r="H433">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -16460,7 +16460,7 @@
         <v>-3602188.957809841</v>
       </c>
       <c r="H618">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="619" spans="1:8">
@@ -16486,7 +16486,7 @@
         <v>-3601473.957809841</v>
       </c>
       <c r="H619">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="620" spans="1:8">
@@ -16512,7 +16512,7 @@
         <v>-3602117.757809841</v>
       </c>
       <c r="H620">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="621" spans="1:8">
@@ -16538,7 +16538,7 @@
         <v>-3623238.006109841</v>
       </c>
       <c r="H621">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="622" spans="1:8">
@@ -16564,7 +16564,7 @@
         <v>-3660525.576009841</v>
       </c>
       <c r="H622">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="623" spans="1:8">
@@ -16590,7 +16590,7 @@
         <v>-3661920.381909841</v>
       </c>
       <c r="H623">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="624" spans="1:8">
@@ -16642,7 +16642,7 @@
         <v>-3651594.985909841</v>
       </c>
       <c r="H625">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="626" spans="1:8">
@@ -16668,7 +16668,7 @@
         <v>-3675994.107909841</v>
       </c>
       <c r="H626">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="627" spans="1:8">
@@ -16694,7 +16694,7 @@
         <v>-3630041.445909841</v>
       </c>
       <c r="H627">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="628" spans="1:8">
@@ -16980,7 +16980,7 @@
         <v>-3574428.58666175</v>
       </c>
       <c r="H638">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="639" spans="1:8">
@@ -17006,7 +17006,7 @@
         <v>-3546593.079461751</v>
       </c>
       <c r="H639">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="640" spans="1:8">
@@ -17058,7 +17058,7 @@
         <v>-3546593.079461751</v>
       </c>
       <c r="H641">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="642" spans="1:8">
@@ -17084,7 +17084,7 @@
         <v>-3378806.02916175</v>
       </c>
       <c r="H642">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="643" spans="1:8">
@@ -17110,7 +17110,7 @@
         <v>-3386193.113761751</v>
       </c>
       <c r="H643">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="644" spans="1:8">
@@ -17136,7 +17136,7 @@
         <v>-3375560.91376175</v>
       </c>
       <c r="H644">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="645" spans="1:8">
@@ -17162,7 +17162,7 @@
         <v>-3375560.91376175</v>
       </c>
       <c r="H645">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="646" spans="1:8">
@@ -17188,7 +17188,7 @@
         <v>-3375560.91376175</v>
       </c>
       <c r="H646">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="647" spans="1:8">
@@ -17214,7 +17214,7 @@
         <v>-3350813.87806175</v>
       </c>
       <c r="H647">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="648" spans="1:8">
@@ -17240,7 +17240,7 @@
         <v>-3351994.87846175</v>
       </c>
       <c r="H648">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="649" spans="1:8">
@@ -17266,7 +17266,7 @@
         <v>-3353736.85846175</v>
       </c>
       <c r="H649">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="650" spans="1:8">
@@ -17292,7 +17292,7 @@
         <v>-3353335.37886175</v>
       </c>
       <c r="H650">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="651" spans="1:8">
@@ -17318,7 +17318,7 @@
         <v>-3347238.92766175</v>
       </c>
       <c r="H651">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="652" spans="1:8">
@@ -17344,7 +17344,7 @@
         <v>-3361032.82366175</v>
       </c>
       <c r="H652">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="653" spans="1:8">
@@ -17370,7 +17370,7 @@
         <v>-3380103.19496175</v>
       </c>
       <c r="H653">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="654" spans="1:8">
@@ -17396,7 +17396,7 @@
         <v>-3379999.19496175</v>
       </c>
       <c r="H654">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="655" spans="1:8">
@@ -17422,7 +17422,7 @@
         <v>-3368148.23936175</v>
       </c>
       <c r="H655">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="656" spans="1:8">
@@ -17448,7 +17448,7 @@
         <v>-3337199.01616175</v>
       </c>
       <c r="H656">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="657" spans="1:8">
@@ -17474,7 +17474,7 @@
         <v>-3277702.23636175</v>
       </c>
       <c r="H657">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="658" spans="1:8">
@@ -17500,7 +17500,7 @@
         <v>-3278055.23636175</v>
       </c>
       <c r="H658">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="659" spans="1:8">
@@ -17526,7 +17526,7 @@
         <v>-3276703.71846175</v>
       </c>
       <c r="H659">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="660" spans="1:8">
@@ -17552,7 +17552,7 @@
         <v>-3276703.71846175</v>
       </c>
       <c r="H660">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="661" spans="1:8">
@@ -17578,7 +17578,7 @@
         <v>-3287939.56556175</v>
       </c>
       <c r="H661">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="662" spans="1:8">
@@ -17604,7 +17604,7 @@
         <v>-3286906.51166175</v>
       </c>
       <c r="H662">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="663" spans="1:8">
@@ -17630,7 +17630,7 @@
         <v>-3259079.99536175</v>
       </c>
       <c r="H663">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="664" spans="1:8">
@@ -17656,7 +17656,7 @@
         <v>-3285673.88076175</v>
       </c>
       <c r="H664">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="665" spans="1:8">
@@ -17682,7 +17682,7 @@
         <v>-3280624.09726175</v>
       </c>
       <c r="H665">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="666" spans="1:8">
@@ -17708,7 +17708,7 @@
         <v>-3277944.93996175</v>
       </c>
       <c r="H666">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="667" spans="1:8">
@@ -17734,7 +17734,7 @@
         <v>-3281722.57806175</v>
       </c>
       <c r="H667">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="668" spans="1:8">
@@ -17760,7 +17760,7 @@
         <v>-3241239.51126175</v>
       </c>
       <c r="H668">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="669" spans="1:8">
@@ -17786,7 +17786,7 @@
         <v>-3242434.21246175</v>
       </c>
       <c r="H669">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="670" spans="1:8">
@@ -17812,7 +17812,7 @@
         <v>-3265019.13426175</v>
       </c>
       <c r="H670">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="671" spans="1:8">
@@ -17838,7 +17838,7 @@
         <v>-3266858.07396175</v>
       </c>
       <c r="H671">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="672" spans="1:8">
@@ -17864,7 +17864,7 @@
         <v>-3182372.54056175</v>
       </c>
       <c r="H672">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="673" spans="1:8">
@@ -17890,7 +17890,7 @@
         <v>-3182927.23936175</v>
       </c>
       <c r="H673">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="674" spans="1:8">
@@ -17916,7 +17916,7 @@
         <v>-3182733.95640626</v>
       </c>
       <c r="H674">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="675" spans="1:8">
@@ -17942,7 +17942,7 @@
         <v>-3108268.61475779</v>
       </c>
       <c r="H675">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="676" spans="1:8">
@@ -17968,7 +17968,7 @@
         <v>-3109139.61475779</v>
       </c>
       <c r="H676">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="677" spans="1:8">
@@ -17994,7 +17994,7 @@
         <v>-3116063.51375779</v>
       </c>
       <c r="H677">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="678" spans="1:8">
@@ -18020,7 +18020,7 @@
         <v>-3101096.30385779</v>
       </c>
       <c r="H678">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="679" spans="1:8">
@@ -18046,7 +18046,7 @@
         <v>-3101096.30385779</v>
       </c>
       <c r="H679">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="680" spans="1:8">
@@ -18072,7 +18072,7 @@
         <v>-3123540.00385779</v>
       </c>
       <c r="H680">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="681" spans="1:8">
@@ -18098,7 +18098,7 @@
         <v>-3123540.00385779</v>
       </c>
       <c r="H681">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="682" spans="1:8">
@@ -18124,7 +18124,7 @@
         <v>-3123540.00385779</v>
       </c>
       <c r="H682">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="683" spans="1:8">
@@ -18150,7 +18150,7 @@
         <v>-3124967.25145779</v>
       </c>
       <c r="H683">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="684" spans="1:8">
@@ -18176,7 +18176,7 @@
         <v>-3124667.25145779</v>
       </c>
       <c r="H684">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="685" spans="1:8">
@@ -18202,7 +18202,7 @@
         <v>-3038165.12755856</v>
       </c>
       <c r="H685">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="686" spans="1:8">
@@ -18228,7 +18228,7 @@
         <v>-3064904.08355856</v>
       </c>
       <c r="H686">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="687" spans="1:8">
@@ -18254,7 +18254,7 @@
         <v>-3066917.61065856</v>
       </c>
       <c r="H687">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="688" spans="1:8">
@@ -18280,7 +18280,7 @@
         <v>-3066917.61065856</v>
       </c>
       <c r="H688">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="689" spans="1:8">
@@ -18306,7 +18306,7 @@
         <v>-3070027.76935856</v>
       </c>
       <c r="H689">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="690" spans="1:8">
@@ -18332,7 +18332,7 @@
         <v>-3082979.98675856</v>
       </c>
       <c r="H690">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="691" spans="1:8">
@@ -18358,7 +18358,7 @@
         <v>-3082930.49755856</v>
       </c>
       <c r="H691">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="692" spans="1:8">
@@ -18384,7 +18384,7 @@
         <v>-3085140.58935856</v>
       </c>
       <c r="H692">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="693" spans="1:8">
@@ -18410,7 +18410,7 @@
         <v>-3081518.49035856</v>
       </c>
       <c r="H693">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="694" spans="1:8">
@@ -18436,7 +18436,7 @@
         <v>-3129375.08785856</v>
       </c>
       <c r="H694">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="695" spans="1:8">
@@ -18462,7 +18462,7 @@
         <v>-3130421.87885856</v>
       </c>
       <c r="H695">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="696" spans="1:8">
@@ -18488,7 +18488,7 @@
         <v>-3061341.48455856</v>
       </c>
       <c r="H696">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="697" spans="1:8">
@@ -18514,7 +18514,7 @@
         <v>-3107625.29375856</v>
       </c>
       <c r="H697">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="698" spans="1:8">
@@ -18540,7 +18540,7 @@
         <v>-3084165.83445856</v>
       </c>
       <c r="H698">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="699" spans="1:8">
@@ -18566,7 +18566,7 @@
         <v>-3118531.35295856</v>
       </c>
       <c r="H699">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="700" spans="1:8">
@@ -18592,7 +18592,7 @@
         <v>-3119234.35295856</v>
       </c>
       <c r="H700">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="701" spans="1:8">
@@ -18618,7 +18618,7 @@
         <v>-3118617.35295856</v>
       </c>
       <c r="H701">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="702" spans="1:8">
@@ -18644,7 +18644,7 @@
         <v>-3141117.35295856</v>
       </c>
       <c r="H702">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="703" spans="1:8">
@@ -18670,7 +18670,7 @@
         <v>-3167665.21275856</v>
       </c>
       <c r="H703">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="704" spans="1:8">
@@ -18696,7 +18696,7 @@
         <v>-3220946.30365856</v>
       </c>
       <c r="H704">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="705" spans="1:8">
@@ -18722,7 +18722,7 @@
         <v>-3220946.30365856</v>
       </c>
       <c r="H705">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="706" spans="1:8">
@@ -18748,7 +18748,7 @@
         <v>-3220946.30365856</v>
       </c>
       <c r="H706">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="707" spans="1:8">
@@ -18774,7 +18774,7 @@
         <v>-3220946.30365856</v>
       </c>
       <c r="H707">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="708" spans="1:8">
@@ -18800,7 +18800,7 @@
         <v>-3220663.67325856</v>
       </c>
       <c r="H708">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="709" spans="1:8">
@@ -18826,7 +18826,7 @@
         <v>-3221983.67325856</v>
       </c>
       <c r="H709">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="710" spans="1:8">
@@ -18852,7 +18852,7 @@
         <v>-3222643.67325856</v>
       </c>
       <c r="H710">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="711" spans="1:8">
@@ -18878,7 +18878,7 @@
         <v>-2915424.35345856</v>
       </c>
       <c r="H711">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="712" spans="1:8">
@@ -18904,7 +18904,7 @@
         <v>-2915790.96625856</v>
       </c>
       <c r="H712">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="713" spans="1:8">
@@ -18930,7 +18930,7 @@
         <v>-2861620.35023552</v>
       </c>
       <c r="H713">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="714" spans="1:8">
@@ -18956,7 +18956,7 @@
         <v>-2857081.02063552</v>
       </c>
       <c r="H714">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="715" spans="1:8">
@@ -18982,7 +18982,7 @@
         <v>-2857426.02063552</v>
       </c>
       <c r="H715">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="716" spans="1:8">
@@ -19008,7 +19008,7 @@
         <v>-2851619.64903552</v>
       </c>
       <c r="H716">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="717" spans="1:8">
@@ -19034,7 +19034,7 @@
         <v>-2850608.03413552</v>
       </c>
       <c r="H717">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="718" spans="1:8">
@@ -19060,7 +19060,7 @@
         <v>-2850608.03413552</v>
       </c>
       <c r="H718">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="719" spans="1:8">
@@ -20334,7 +20334,7 @@
         <v>-2676029.64066283</v>
       </c>
       <c r="H767">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="768" spans="1:8">
@@ -20360,7 +20360,7 @@
         <v>-2704362.49276283</v>
       </c>
       <c r="H768">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="769" spans="1:8">
@@ -24598,7 +24598,7 @@
         <v>-1147718.511085969</v>
       </c>
       <c r="H931">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="932" spans="1:8">
@@ -24624,7 +24624,7 @@
         <v>-1108710.765885969</v>
       </c>
       <c r="H932">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="933" spans="1:8">
@@ -24650,7 +24650,7 @@
         <v>-1090200.029785969</v>
       </c>
       <c r="H933">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="934" spans="1:8">
@@ -24676,7 +24676,7 @@
         <v>-1089389.394247709</v>
       </c>
       <c r="H934">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="935" spans="1:8">
@@ -24702,7 +24702,7 @@
         <v>-1127547.608247709</v>
       </c>
       <c r="H935">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="936" spans="1:8">
@@ -24728,7 +24728,7 @@
         <v>-1127415.224001519</v>
       </c>
       <c r="H936">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="937" spans="1:8">
@@ -24754,7 +24754,7 @@
         <v>-1127415.224001519</v>
       </c>
       <c r="H937">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="938" spans="1:8">
@@ -24780,7 +24780,7 @@
         <v>-1185248.025301519</v>
       </c>
       <c r="H938">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="939" spans="1:8">
@@ -24806,7 +24806,7 @@
         <v>-1230884.533701519</v>
       </c>
       <c r="H939">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="940" spans="1:8">
@@ -24832,7 +24832,7 @@
         <v>-1230884.533701519</v>
       </c>
       <c r="H940">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="941" spans="1:8">
@@ -24858,7 +24858,7 @@
         <v>-1381771.362501519</v>
       </c>
       <c r="H941">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="942" spans="1:8">
@@ -24884,7 +24884,7 @@
         <v>-1341647.635101519</v>
       </c>
       <c r="H942">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="943" spans="1:8">
@@ -24962,7 +24962,7 @@
         <v>-1352182.113044589</v>
       </c>
       <c r="H945">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="946" spans="1:8">
@@ -24988,7 +24988,7 @@
         <v>-1385558.706144589</v>
       </c>
       <c r="H946">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="947" spans="1:8">
@@ -25014,7 +25014,7 @@
         <v>-1380400.447644589</v>
       </c>
       <c r="H947">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="948" spans="1:8">
@@ -25066,7 +25066,7 @@
         <v>-1386282.968044588</v>
       </c>
       <c r="H949">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="950" spans="1:8">
@@ -25222,7 +25222,7 @@
         <v>-1416820.699544589</v>
       </c>
       <c r="H955">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="956" spans="1:8">
@@ -25248,7 +25248,7 @@
         <v>-1323978.687614439</v>
       </c>
       <c r="H956">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="957" spans="1:8">
@@ -25326,7 +25326,7 @@
         <v>-1232655.458744589</v>
       </c>
       <c r="H959">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="960" spans="1:8">
@@ -25352,7 +25352,7 @@
         <v>-1157162.067644589</v>
       </c>
       <c r="H960">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="961" spans="1:8">
@@ -25378,7 +25378,7 @@
         <v>-1157162.067644589</v>
       </c>
       <c r="H961">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="962" spans="1:8">
@@ -25404,7 +25404,7 @@
         <v>-1157162.067644589</v>
       </c>
       <c r="H962">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="963" spans="1:8">
@@ -25430,7 +25430,7 @@
         <v>-1155548.904231139</v>
       </c>
       <c r="H963">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="964" spans="1:8">
@@ -25456,7 +25456,7 @@
         <v>-1155548.904231139</v>
       </c>
       <c r="H964">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="965" spans="1:8">
@@ -25482,7 +25482,7 @@
         <v>-1208516.775431139</v>
       </c>
       <c r="H965">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="966" spans="1:8">
@@ -25508,7 +25508,7 @@
         <v>-1208506.775431139</v>
       </c>
       <c r="H966">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="967" spans="1:8">
@@ -25534,7 +25534,7 @@
         <v>-1223341.967431139</v>
       </c>
       <c r="H967">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="968" spans="1:8">
@@ -25560,7 +25560,7 @@
         <v>-1223532.943831139</v>
       </c>
       <c r="H968">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="969" spans="1:8">
@@ -25586,7 +25586,7 @@
         <v>-1223477.949479039</v>
       </c>
       <c r="H969">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="970" spans="1:8">
@@ -25612,7 +25612,7 @@
         <v>-1311539.101582619</v>
       </c>
       <c r="H970">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="971" spans="1:8">
@@ -25638,7 +25638,7 @@
         <v>-1281312.325776169</v>
       </c>
       <c r="H971">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="972" spans="1:8">
@@ -25664,7 +25664,7 @@
         <v>-1281312.325776169</v>
       </c>
       <c r="H972">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="973" spans="1:8">
@@ -25690,7 +25690,7 @@
         <v>-1281312.325776169</v>
       </c>
       <c r="H973">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="974" spans="1:8">
@@ -25716,7 +25716,7 @@
         <v>-1493653.791076169</v>
       </c>
       <c r="H974">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="975" spans="1:8">
@@ -25742,7 +25742,7 @@
         <v>-1437668.537076169</v>
       </c>
       <c r="H975">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="976" spans="1:8">
@@ -25768,7 +25768,7 @@
         <v>-1274572.200551749</v>
       </c>
       <c r="H976">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="977" spans="1:8">
@@ -25794,7 +25794,7 @@
         <v>-1193489.546351749</v>
       </c>
       <c r="H977">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="978" spans="1:8">
@@ -25820,7 +25820,7 @@
         <v>-1098756.107516769</v>
       </c>
       <c r="H978">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="979" spans="1:8">
@@ -25846,7 +25846,7 @@
         <v>-1082888.422734499</v>
       </c>
       <c r="H979">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="980" spans="1:8">
@@ -25872,7 +25872,7 @@
         <v>-931762.200434499</v>
       </c>
       <c r="H980">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="981" spans="1:8">
@@ -25898,7 +25898,7 @@
         <v>-915065.345834499</v>
       </c>
       <c r="H981">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="982" spans="1:8">
@@ -25924,7 +25924,7 @@
         <v>-854521.056234499</v>
       </c>
       <c r="H982">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="983" spans="1:8">
@@ -25950,7 +25950,7 @@
         <v>-1006259.096534499</v>
       </c>
       <c r="H983">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="984" spans="1:8">
@@ -25976,7 +25976,7 @@
         <v>-1006223.096534499</v>
       </c>
       <c r="H984">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="985" spans="1:8">
@@ -26002,7 +26002,7 @@
         <v>-1065891.187534499</v>
       </c>
       <c r="H985">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="986" spans="1:8">
@@ -26028,7 +26028,7 @@
         <v>-1074671.187534499</v>
       </c>
       <c r="H986">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="987" spans="1:8">
@@ -26054,7 +26054,7 @@
         <v>-1074821.187534499</v>
       </c>
       <c r="H987">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="988" spans="1:8">
@@ -26080,7 +26080,7 @@
         <v>-1064166.143124859</v>
       </c>
       <c r="H988">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="989" spans="1:8">
@@ -26106,7 +26106,7 @@
         <v>-1077236.098724859</v>
       </c>
       <c r="H989">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="990" spans="1:8">
@@ -26132,7 +26132,7 @@
         <v>-1061788.207724859</v>
       </c>
       <c r="H990">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="991" spans="1:8">
@@ -26158,7 +26158,7 @@
         <v>-1027981.504324859</v>
       </c>
       <c r="H991">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="992" spans="1:8">
@@ -26184,7 +26184,7 @@
         <v>-1027981.504324859</v>
       </c>
       <c r="H992">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="993" spans="1:8">
@@ -26210,7 +26210,7 @@
         <v>-1035213.092024859</v>
       </c>
       <c r="H993">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="994" spans="1:8">
@@ -26236,7 +26236,7 @@
         <v>-1060734.483784169</v>
       </c>
       <c r="H994">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="995" spans="1:8">
@@ -26262,7 +26262,7 @@
         <v>-1082298.983184169</v>
       </c>
       <c r="H995">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="996" spans="1:8">
@@ -26288,7 +26288,7 @@
         <v>-1082708.629884169</v>
       </c>
       <c r="H996">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="997" spans="1:8">
@@ -26314,7 +26314,7 @@
         <v>-1075352.629884169</v>
       </c>
       <c r="H997">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="998" spans="1:8">
@@ -26340,7 +26340,7 @@
         <v>-1076052.629884169</v>
       </c>
       <c r="H998">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="999" spans="1:8">
@@ -26366,7 +26366,7 @@
         <v>-1184132.385284169</v>
       </c>
       <c r="H999">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1000" spans="1:8">
@@ -26392,7 +26392,7 @@
         <v>-2312809.327884169</v>
       </c>
       <c r="H1000">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1001" spans="1:8">
@@ -26418,7 +26418,7 @@
         <v>-2319125.900584169</v>
       </c>
       <c r="H1001">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1002" spans="1:8">
